--- a/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>519702</t>
-  </si>
-  <si>
-    <t>交银趋势优先混合</t>
-  </si>
-  <si>
-    <t>78.90</t>
-  </si>
-  <si>
-    <t>81.92</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>1.7595</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,407 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0981</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.53</v>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,499 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8444</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.63</v>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.53</v>
       </c>
     </row>
     <row r="4">
@@ -1520,13 +1585,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>78.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7595</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002345</t>
+          <t>009861</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏高端制造灵活配置混合</t>
+          <t>鹏华新兴成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.87</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0981</t>
+          <t>1.1666</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -637,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012098</t>
+          <t>002345</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+          <t>华夏高端制造灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.82</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>48.34</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5550</t>
+          <t>0.9101</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -675,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>005028</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>鹏华研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.00</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3391</t>
+          <t>0.7824</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -713,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009937</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方欣益一年持有期偏债混合A</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.31</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35.71</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2528</t>
+          <t>0.2732</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -751,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>400001</t>
+          <t>009862</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方龙混合</t>
+          <t>鹏华新兴成长混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1034</t>
+          <t>0.0378</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -789,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161722</t>
+          <t>015058</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商丰泰灵活配置混合(LOF)</t>
+          <t>华夏高端制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.11</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0890</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -827,112 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004558</t>
+          <t>015060</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合A</t>
+          <t>华夏节能环保股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0792</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009938</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方欣益一年持有期偏债混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>35.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004559</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,36 +1439,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009861</t>
+          <t>002345</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合A</t>
+          <t>华夏高端制造灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>27.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1666</t>
+          <t>1.0981</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1547,36 +1477,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002345</t>
+          <t>012098</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏高端制造灵活配置混合</t>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>19.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>48.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9101</t>
+          <t>0.5550</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1585,36 +1515,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005028</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华研究精选灵活配置混合</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>92.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7824</t>
+          <t>0.3391</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1623,36 +1553,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>009937</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>东方欣益一年持有期偏债混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>16.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2732</t>
+          <t>0.2528</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1661,36 +1591,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009862</t>
+          <t>400001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合C</t>
+          <t>东方龙混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0378</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1699,36 +1629,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>015058</t>
+          <t>161722</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏高端制造灵活配置混合C</t>
+          <t>招商丰泰灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0268</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1737,36 +1667,112 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>015060</t>
+          <t>004558</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏节能环保股票C</t>
+          <t>汇安丰裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0792</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1780,96 +1786,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.76</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.2</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.76</v>
       </c>
     </row>
@@ -549,6 +566,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016257</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1382,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1780,7 +2157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/003038-鑫铂股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.36</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.2</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.76</v>
       </c>
     </row>
@@ -566,6 +583,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +1188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1247,7 +1510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1759,7 +2022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2157,7 +2420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
